--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H2">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J2">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N2">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q2">
-        <v>18.164028153144</v>
+        <v>0.8656558470313334</v>
       </c>
       <c r="R2">
-        <v>163.476253378296</v>
+        <v>7.790902623282</v>
       </c>
       <c r="S2">
-        <v>0.003274789932212253</v>
+        <v>0.0002323593136942753</v>
       </c>
       <c r="T2">
-        <v>0.003274789932212252</v>
+        <v>0.0002323593136942753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H3">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J3">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>3.323421</v>
       </c>
       <c r="N3">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q3">
-        <v>536.000621021064</v>
+        <v>340.627376367123</v>
       </c>
       <c r="R3">
-        <v>4824.005589189576</v>
+        <v>3065.646387304107</v>
       </c>
       <c r="S3">
-        <v>0.09663547218602356</v>
+        <v>0.09143118904536371</v>
       </c>
       <c r="T3">
-        <v>0.09663547218602354</v>
+        <v>0.09143118904536374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>161.279784</v>
+        <v>102.4929963333333</v>
       </c>
       <c r="H4">
-        <v>483.839352</v>
+        <v>307.478989</v>
       </c>
       <c r="I4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599813</v>
       </c>
       <c r="J4">
-        <v>0.3023989599621841</v>
+        <v>0.2065071987599814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N4">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q4">
-        <v>1123.128653887824</v>
+        <v>427.8506244633953</v>
       </c>
       <c r="R4">
-        <v>10108.15788499041</v>
+        <v>3850.655620170557</v>
       </c>
       <c r="S4">
-        <v>0.2024886978439483</v>
+        <v>0.1148436504009233</v>
       </c>
       <c r="T4">
-        <v>0.2024886978439483</v>
+        <v>0.1148436504009233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J5">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N5">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q5">
-        <v>32.5225297878271</v>
+        <v>2.438951498829333</v>
       </c>
       <c r="R5">
-        <v>292.702768090444</v>
+        <v>21.950563489464</v>
       </c>
       <c r="S5">
-        <v>0.005863482054822434</v>
+        <v>0.0006546632802690409</v>
       </c>
       <c r="T5">
-        <v>0.005863482054822432</v>
+        <v>0.000654663280269041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J6">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>3.323421</v>
       </c>
       <c r="N6">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q6">
-        <v>959.704313188596</v>
+        <v>959.7043131885957</v>
       </c>
       <c r="R6">
-        <v>8637.338818697364</v>
+        <v>8637.338818697363</v>
       </c>
       <c r="S6">
-        <v>0.1730249477832206</v>
+        <v>0.2576037998549628</v>
       </c>
       <c r="T6">
-        <v>0.1730249477832206</v>
+        <v>0.2576037998549629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.541442630470476</v>
+        <v>0.581825957350084</v>
       </c>
       <c r="J7">
-        <v>0.5414426304704759</v>
+        <v>0.5818259573500841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N7">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q7">
-        <v>2010.951799549291</v>
+        <v>1205.452403964752</v>
       </c>
       <c r="R7">
-        <v>18098.56619594362</v>
+        <v>10849.07163568276</v>
       </c>
       <c r="S7">
-        <v>0.362554200632433</v>
+        <v>0.3235674942148521</v>
       </c>
       <c r="T7">
-        <v>0.3625542006324329</v>
+        <v>0.3235674942148522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H8">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J8">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N8">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q8">
-        <v>9.379879309393335</v>
+        <v>0.88728452149</v>
       </c>
       <c r="R8">
-        <v>84.41891378454001</v>
+        <v>7.98556069341</v>
       </c>
       <c r="S8">
-        <v>0.001691097044597484</v>
+        <v>0.0002381648817737465</v>
       </c>
       <c r="T8">
-        <v>0.001691097044597484</v>
+        <v>0.0002381648817737465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H9">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J9">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>3.323421</v>
       </c>
       <c r="N9">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q9">
-        <v>276.7899880218601</v>
+        <v>349.138054901115</v>
       </c>
       <c r="R9">
-        <v>2491.10989219674</v>
+        <v>3142.242494110035</v>
       </c>
       <c r="S9">
-        <v>0.04990242574328119</v>
+        <v>0.0937156250946467</v>
       </c>
       <c r="T9">
-        <v>0.04990242574328119</v>
+        <v>0.09371562509464672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.28466000000002</v>
+        <v>105.053815</v>
       </c>
       <c r="H10">
-        <v>249.85398</v>
+        <v>315.161445</v>
       </c>
       <c r="I10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="J10">
-        <v>0.15615840956734</v>
+        <v>0.2116668438899346</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N10">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q10">
-        <v>579.9821016334266</v>
+        <v>438.5406023630317</v>
       </c>
       <c r="R10">
-        <v>5219.83891470084</v>
+        <v>3946.865421267285</v>
       </c>
       <c r="S10">
-        <v>0.1045648867794613</v>
+        <v>0.1177130539135142</v>
       </c>
       <c r="T10">
-        <v>0.1045648867794613</v>
+        <v>0.1177130539135142</v>
       </c>
     </row>
   </sheetData>
